--- a/apps/src/Luzyce.Api/Resources/prod-plan-template.xlsx
+++ b/apps/src/Luzyce.Api/Resources/prod-plan-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddnow\Documents\Projects\.NET\Luzyce\apps\src\Luzyce.Api\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778C5257-D68F-4DF7-86B0-06D38380E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0C9AFE-F2C5-4C90-9883-74314DD4D6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="6" r:id="rId1"/>
@@ -1890,6 +1890,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,6 +1935,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1947,15 +1974,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1966,24 +1984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3581,7 +3581,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3592,7 +3592,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="79" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3603,7 +3603,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9292683" cy="6051860"/>
+    <xdr:ext cx="8652076" cy="6269620"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -3636,7 +3636,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294556" cy="6052984"/>
+    <xdr:ext cx="8652076" cy="6269620"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
@@ -3954,50 +3954,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="13.5703125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="4.7109375" style="89" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="4.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="11" width="6.140625" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="24.85546875" customWidth="1"/>
-    <col min="19" max="19" width="8.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="27" width="9.140625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="29" max="234" width="9.140625" customWidth="1"/>
-    <col min="235" max="235" width="5.85546875" customWidth="1"/>
-    <col min="236" max="236" width="3.7109375" customWidth="1"/>
-    <col min="237" max="237" width="10.5703125" customWidth="1"/>
-    <col min="238" max="238" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="13.5546875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="3.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4.6640625" style="89" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="4.44140625" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="11" width="6.109375" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.44140625" customWidth="1"/>
+    <col min="15" max="16" width="8.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="24.88671875" customWidth="1"/>
+    <col min="19" max="19" width="8.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="27" width="9.109375" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9.88671875" customWidth="1" collapsed="1"/>
+    <col min="29" max="234" width="9.109375" customWidth="1"/>
+    <col min="235" max="235" width="5.88671875" customWidth="1"/>
+    <col min="236" max="236" width="3.6640625" customWidth="1"/>
+    <col min="237" max="237" width="10.5546875" customWidth="1"/>
+    <col min="238" max="238" width="22.109375" customWidth="1"/>
     <col min="239" max="239" width="0" hidden="1" customWidth="1"/>
-    <col min="240" max="241" width="8.85546875" customWidth="1"/>
-    <col min="242" max="242" width="4.85546875" customWidth="1"/>
-    <col min="243" max="243" width="21.85546875" customWidth="1"/>
-    <col min="244" max="245" width="8.5703125" customWidth="1"/>
-    <col min="246" max="246" width="8.42578125" customWidth="1"/>
+    <col min="240" max="241" width="8.88671875" customWidth="1"/>
+    <col min="242" max="242" width="4.88671875" customWidth="1"/>
+    <col min="243" max="243" width="21.88671875" customWidth="1"/>
+    <col min="244" max="245" width="8.5546875" customWidth="1"/>
+    <col min="246" max="246" width="8.44140625" customWidth="1"/>
     <col min="247" max="247" width="0" hidden="1" customWidth="1"/>
-    <col min="248" max="248" width="4.42578125" customWidth="1"/>
+    <col min="248" max="248" width="4.44140625" customWidth="1"/>
     <col min="249" max="249" width="6" customWidth="1"/>
-    <col min="250" max="250" width="3.28515625" customWidth="1"/>
+    <col min="250" max="250" width="3.33203125" customWidth="1"/>
     <col min="251" max="252" width="11" customWidth="1"/>
-    <col min="253" max="253" width="16.85546875" customWidth="1"/>
-    <col min="254" max="254" width="14.85546875" customWidth="1"/>
-    <col min="255" max="256" width="13.85546875" customWidth="1"/>
+    <col min="253" max="253" width="16.88671875" customWidth="1"/>
+    <col min="254" max="254" width="14.88671875" customWidth="1"/>
+    <col min="255" max="256" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18" customHeight="1">
@@ -4005,8 +4005,8 @@
       <c r="D1" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="163"/>
-      <c r="F1" s="164"/>
+      <c r="E1" s="169"/>
+      <c r="F1" s="170"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="M1" s="2"/>
@@ -4016,8 +4016,8 @@
       <c r="D2" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
       <c r="H2" s="10" t="s">
         <v>0</v>
       </c>
@@ -4032,8 +4032,8 @@
       <c r="D3" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="174"/>
     </row>
     <row r="4" spans="1:27" s="3" customFormat="1" ht="35.25" customHeight="1" thickBot="1">
       <c r="A4" s="88" t="s">
@@ -4127,7 +4127,7 @@
         <f>R$2</f>
         <v>0</v>
       </c>
-      <c r="C5" s="160" t="s">
+      <c r="C5" s="166" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="102">
@@ -4146,7 +4146,7 @@
       <c r="O5" s="80"/>
       <c r="P5" s="80"/>
       <c r="Q5" s="82"/>
-      <c r="R5" s="186"/>
+      <c r="R5" s="160"/>
       <c r="S5" s="90"/>
       <c r="T5" s="41"/>
       <c r="U5" s="41"/>
@@ -4166,7 +4166,7 @@
         <f t="shared" ref="B6:B25" si="1">R$2</f>
         <v>0</v>
       </c>
-      <c r="C6" s="161"/>
+      <c r="C6" s="167"/>
       <c r="D6" s="103">
         <v>2</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
       <c r="Q6" s="29"/>
-      <c r="R6" s="187"/>
+      <c r="R6" s="161"/>
       <c r="S6" s="90"/>
       <c r="T6" s="41"/>
       <c r="U6" s="41"/>
@@ -4203,7 +4203,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C7" s="161"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="103">
         <v>3</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
       <c r="Q7" s="29"/>
-      <c r="R7" s="187"/>
+      <c r="R7" s="161"/>
       <c r="S7" s="90"/>
       <c r="T7" s="41"/>
       <c r="U7" s="41"/>
@@ -4240,7 +4240,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C8" s="161"/>
+      <c r="C8" s="167"/>
       <c r="D8" s="104">
         <v>4</v>
       </c>
@@ -4257,7 +4257,7 @@
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
       <c r="Q8" s="29"/>
-      <c r="R8" s="187"/>
+      <c r="R8" s="161"/>
       <c r="S8" s="90"/>
       <c r="T8" s="41"/>
       <c r="U8" s="41"/>
@@ -4277,7 +4277,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C9" s="161"/>
+      <c r="C9" s="167"/>
       <c r="D9" s="159">
         <v>5</v>
       </c>
@@ -4294,7 +4294,7 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
       <c r="Q9" s="29"/>
-      <c r="R9" s="187"/>
+      <c r="R9" s="161"/>
       <c r="S9" s="90"/>
       <c r="T9" s="41"/>
       <c r="U9" s="41"/>
@@ -4314,7 +4314,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C10" s="161"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="103">
         <v>6</v>
       </c>
@@ -4331,7 +4331,7 @@
       <c r="O10" s="36"/>
       <c r="P10" s="36"/>
       <c r="Q10" s="29"/>
-      <c r="R10" s="187"/>
+      <c r="R10" s="161"/>
       <c r="S10" s="90"/>
       <c r="T10" s="41"/>
       <c r="U10" s="41"/>
@@ -4351,7 +4351,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C11" s="162"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="103">
         <v>7</v>
       </c>
@@ -4368,7 +4368,7 @@
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
       <c r="Q11" s="31"/>
-      <c r="R11" s="188"/>
+      <c r="R11" s="162"/>
       <c r="S11" s="90"/>
       <c r="T11" s="41"/>
       <c r="U11" s="41"/>
@@ -4388,7 +4388,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C12" s="160" t="s">
+      <c r="C12" s="166" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="102">
@@ -4407,7 +4407,7 @@
       <c r="O12" s="80"/>
       <c r="P12" s="80"/>
       <c r="Q12" s="82"/>
-      <c r="R12" s="186"/>
+      <c r="R12" s="160"/>
       <c r="S12" s="90"/>
       <c r="T12" s="41"/>
       <c r="U12" s="41"/>
@@ -4427,7 +4427,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C13" s="161"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="103">
         <v>2</v>
       </c>
@@ -4444,7 +4444,7 @@
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
       <c r="Q13" s="29"/>
-      <c r="R13" s="187"/>
+      <c r="R13" s="161"/>
       <c r="S13" s="90"/>
       <c r="T13" s="41"/>
       <c r="U13" s="41"/>
@@ -4464,7 +4464,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C14" s="161"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="103">
         <v>3</v>
       </c>
@@ -4481,7 +4481,7 @@
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
       <c r="Q14" s="29"/>
-      <c r="R14" s="187"/>
+      <c r="R14" s="161"/>
       <c r="S14" s="90"/>
       <c r="T14" s="41"/>
       <c r="U14" s="41"/>
@@ -4501,7 +4501,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C15" s="161"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="104">
         <v>4</v>
       </c>
@@ -4518,7 +4518,7 @@
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
       <c r="Q15" s="29"/>
-      <c r="R15" s="187"/>
+      <c r="R15" s="161"/>
       <c r="S15" s="90"/>
       <c r="T15" s="41"/>
       <c r="U15" s="41"/>
@@ -4538,7 +4538,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C16" s="161"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="159">
         <v>5</v>
       </c>
@@ -4555,7 +4555,7 @@
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
       <c r="Q16" s="29"/>
-      <c r="R16" s="187"/>
+      <c r="R16" s="161"/>
       <c r="S16" s="90"/>
       <c r="T16" s="41"/>
       <c r="U16" s="41"/>
@@ -4575,7 +4575,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C17" s="161"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="103">
         <v>6</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
       <c r="Q17" s="29"/>
-      <c r="R17" s="187"/>
+      <c r="R17" s="161"/>
       <c r="S17" s="90"/>
       <c r="T17" s="41"/>
       <c r="U17" s="41"/>
@@ -4612,7 +4612,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C18" s="162"/>
+      <c r="C18" s="168"/>
       <c r="D18" s="103">
         <v>7</v>
       </c>
@@ -4629,7 +4629,7 @@
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="31"/>
-      <c r="R18" s="188"/>
+      <c r="R18" s="162"/>
       <c r="S18" s="90"/>
       <c r="T18" s="41"/>
       <c r="U18" s="41"/>
@@ -4649,7 +4649,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C19" s="160" t="s">
+      <c r="C19" s="166" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="102">
@@ -4668,7 +4668,7 @@
       <c r="O19" s="80"/>
       <c r="P19" s="80"/>
       <c r="Q19" s="82"/>
-      <c r="R19" s="189"/>
+      <c r="R19" s="163"/>
       <c r="S19" s="90"/>
       <c r="T19" s="41"/>
       <c r="U19" s="41"/>
@@ -4688,7 +4688,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C20" s="161"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="103">
         <v>2</v>
       </c>
@@ -4705,7 +4705,7 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
       <c r="Q20" s="29"/>
-      <c r="R20" s="190"/>
+      <c r="R20" s="164"/>
       <c r="S20" s="90"/>
       <c r="T20" s="41"/>
       <c r="U20" s="41"/>
@@ -4725,7 +4725,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="103">
         <v>3</v>
       </c>
@@ -4742,7 +4742,7 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
       <c r="Q21" s="29"/>
-      <c r="R21" s="190"/>
+      <c r="R21" s="164"/>
       <c r="S21" s="90"/>
       <c r="T21" s="41"/>
       <c r="U21" s="41"/>
@@ -4762,7 +4762,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="167"/>
       <c r="D22" s="104">
         <v>4</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="29"/>
-      <c r="R22" s="190"/>
+      <c r="R22" s="164"/>
       <c r="S22" s="90"/>
       <c r="T22" s="41"/>
       <c r="U22" s="41"/>
@@ -4799,7 +4799,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="159">
         <v>5</v>
       </c>
@@ -4816,7 +4816,7 @@
       <c r="O23" s="36"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="29"/>
-      <c r="R23" s="190"/>
+      <c r="R23" s="164"/>
       <c r="S23" s="99"/>
       <c r="T23" s="100"/>
       <c r="U23" s="100"/>
@@ -4836,7 +4836,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C24" s="161"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="103">
         <v>6</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="O24" s="36"/>
       <c r="P24" s="36"/>
       <c r="Q24" s="29"/>
-      <c r="R24" s="190"/>
+      <c r="R24" s="164"/>
       <c r="S24" s="99"/>
       <c r="T24" s="100"/>
       <c r="U24" s="100"/>
@@ -4873,7 +4873,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C25" s="162"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="103">
         <v>7</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="O25" s="81"/>
       <c r="P25" s="81"/>
       <c r="Q25" s="81"/>
-      <c r="R25" s="191"/>
+      <c r="R25" s="165"/>
       <c r="S25" s="91"/>
       <c r="T25" s="86"/>
       <c r="U25" s="86"/>
@@ -4903,15 +4903,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="R5:R11"/>
     <mergeCell ref="R12:R18"/>
     <mergeCell ref="R19:R25"/>
     <mergeCell ref="C5:C11"/>
     <mergeCell ref="C12:C18"/>
     <mergeCell ref="C19:C25"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.15748031496062992" top="0.3" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.18"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4922,34 +4922,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" style="56" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
-    <col min="7" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="224" width="9.140625" customWidth="1"/>
-    <col min="225" max="225" width="5.85546875" customWidth="1"/>
-    <col min="226" max="226" width="3.7109375" customWidth="1"/>
-    <col min="227" max="227" width="10.5703125" customWidth="1"/>
-    <col min="228" max="228" width="22.140625" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="5" width="10.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="4" customWidth="1"/>
+    <col min="7" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="224" width="9.109375" customWidth="1"/>
+    <col min="225" max="225" width="5.88671875" customWidth="1"/>
+    <col min="226" max="226" width="3.6640625" customWidth="1"/>
+    <col min="227" max="227" width="10.5546875" customWidth="1"/>
+    <col min="228" max="228" width="22.109375" customWidth="1"/>
     <col min="229" max="229" width="0" hidden="1" customWidth="1"/>
-    <col min="230" max="231" width="8.85546875" customWidth="1"/>
-    <col min="232" max="232" width="4.85546875" customWidth="1"/>
-    <col min="233" max="233" width="21.85546875" customWidth="1"/>
-    <col min="234" max="235" width="8.5703125" customWidth="1"/>
-    <col min="236" max="236" width="8.42578125" customWidth="1"/>
+    <col min="230" max="231" width="8.88671875" customWidth="1"/>
+    <col min="232" max="232" width="4.88671875" customWidth="1"/>
+    <col min="233" max="233" width="21.88671875" customWidth="1"/>
+    <col min="234" max="235" width="8.5546875" customWidth="1"/>
+    <col min="236" max="236" width="8.44140625" customWidth="1"/>
     <col min="237" max="237" width="0" hidden="1" customWidth="1"/>
-    <col min="238" max="238" width="4.42578125" customWidth="1"/>
+    <col min="238" max="238" width="4.44140625" customWidth="1"/>
     <col min="239" max="239" width="6" customWidth="1"/>
-    <col min="240" max="240" width="3.28515625" customWidth="1"/>
+    <col min="240" max="240" width="3.33203125" customWidth="1"/>
     <col min="241" max="242" width="11" customWidth="1"/>
-    <col min="243" max="243" width="16.85546875" customWidth="1"/>
-    <col min="244" max="244" width="14.85546875" customWidth="1"/>
+    <col min="243" max="243" width="16.88671875" customWidth="1"/>
+    <col min="244" max="244" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" thickBot="1">
@@ -4993,25 +4993,21 @@
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
       <c r="F3" s="122"/>
-      <c r="G3" s="175" t="s">
+      <c r="G3" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="176"/>
-      <c r="I3" s="177"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="186"/>
     </row>
     <row r="4" spans="1:10" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="187" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="120">
-        <v>590</v>
-      </c>
-      <c r="D4" s="120">
-        <v>380</v>
-      </c>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="120"/>
       <c r="F4" s="49"/>
       <c r="G4" s="138"/>
@@ -5019,7 +5015,7 @@
       <c r="I4" s="139"/>
     </row>
     <row r="5" spans="1:10" ht="41.25" customHeight="1">
-      <c r="A5" s="178"/>
+      <c r="A5" s="187"/>
       <c r="B5" s="123" t="s">
         <v>26</v>
       </c>
@@ -5027,9 +5023,9 @@
       <c r="D5" s="120"/>
       <c r="E5" s="120"/>
       <c r="F5" s="49"/>
-      <c r="G5" s="169"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="171"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="179"/>
+      <c r="I5" s="180"/>
     </row>
     <row r="6" spans="1:10" ht="43.5" customHeight="1">
       <c r="A6" s="126"/>
@@ -5065,19 +5061,15 @@
       <c r="B8" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="46">
-        <v>250</v>
-      </c>
-      <c r="D8" s="46">
-        <v>120</v>
-      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="46"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="172" t="s">
+      <c r="G8" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="174"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:10" ht="44.25" customHeight="1" thickBot="1">
       <c r="A9" s="128"/>
@@ -5119,16 +5111,16 @@
       <c r="I11" s="146"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="191" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="182" t="s">
+      <c r="B12" s="189"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="183"/>
-      <c r="F12" s="184"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="190"/>
       <c r="G12" s="50" t="s">
         <v>2</v>
       </c>
@@ -5281,88 +5273,88 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="180"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="180"/>
-      <c r="I24" s="180"/>
-      <c r="J24" s="181"/>
+      <c r="A24" s="175"/>
+      <c r="B24" s="176"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="176"/>
+      <c r="H24" s="176"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="180"/>
-      <c r="J25" s="181"/>
+      <c r="A25" s="175"/>
+      <c r="B25" s="176"/>
+      <c r="C25" s="176"/>
+      <c r="D25" s="176"/>
+      <c r="E25" s="176"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="177"/>
     </row>
     <row r="26" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="180"/>
-      <c r="I26" s="180"/>
-      <c r="J26" s="181"/>
+      <c r="A26" s="175"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
     </row>
     <row r="27" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="180"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="181"/>
+      <c r="A27" s="175"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="176"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="177"/>
     </row>
     <row r="28" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A28" s="179"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="181"/>
+      <c r="A28" s="175"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="176"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
     </row>
     <row r="29" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
+      <c r="A29" s="175"/>
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
     </row>
     <row r="30" spans="1:10" ht="21.75" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="180"/>
-      <c r="C30" s="180"/>
-      <c r="D30" s="180"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="181"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
     </row>
     <row r="31" spans="1:10" ht="25.5" customHeight="1"/>
     <row r="32" spans="1:10" ht="25.5" customHeight="1"/>
@@ -5374,12 +5366,6 @@
     <row r="38" ht="25.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A26:J26"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G3:I3"/>
@@ -5387,6 +5373,12 @@
     <mergeCell ref="A24:J24"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.74" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5398,14 +5390,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="34.5" customHeight="1">
@@ -5421,7 +5413,7 @@
       <c r="O1" s="60"/>
       <c r="Q1" s="61"/>
     </row>
-    <row r="2" spans="1:17" ht="51">
+    <row r="2" spans="1:17" ht="55.2">
       <c r="A2" s="62" t="s">
         <v>36</v>
       </c>
@@ -5484,27 +5476,23 @@
         <f>D3*E3</f>
         <v>0</v>
       </c>
-      <c r="H3" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H3" s="71"/>
       <c r="I3" s="72">
         <f>F3*D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="72" t="e">
         <f>H$1*I3/H3</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K3" s="72" t="e">
         <f>J3*L3</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M3" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L3" s="73"/>
+      <c r="M3" s="72" t="e">
         <f>J3-K3</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N3" s="74"/>
       <c r="O3" s="74"/>
@@ -5523,27 +5511,23 @@
         <f>D4*E4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H4" s="71"/>
       <c r="I4" s="72">
         <f>F4*D4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="72" t="e">
         <f t="shared" ref="J4:J6" si="0">H$1*I4/H4</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K4" s="72" t="e">
         <f>J4*L4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M4" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="73"/>
+      <c r="M4" s="72" t="e">
         <f>J4-K4</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N4" s="41"/>
       <c r="O4" s="41"/>
@@ -5562,27 +5546,23 @@
         <f t="shared" ref="G5:G6" si="1">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H5" s="71"/>
       <c r="I5" s="72">
         <f t="shared" ref="I5:I6" si="2">F5*D5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="72" t="e">
         <f t="shared" ref="K5:K6" si="3">J5*L5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M5" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="73"/>
+      <c r="M5" s="72" t="e">
         <f>J5-K5</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N5" s="41"/>
       <c r="O5" s="41"/>
@@ -5601,27 +5581,23 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H6" s="71"/>
       <c r="I6" s="72">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K6" s="72" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M6" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L6" s="73"/>
+      <c r="M6" s="72" t="e">
         <f>J6-K6</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N6" s="41"/>
       <c r="O6" s="41"/>
@@ -5640,29 +5616,25 @@
       </c>
       <c r="H7" s="76"/>
       <c r="I7" s="72"/>
-      <c r="J7" s="76">
+      <c r="J7" s="76" t="e">
         <f>SUM(J4:J6)</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K7" s="75" t="e">
         <f t="shared" ref="K7" si="4">SUM(K4:K6)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L7" s="76"/>
-      <c r="M7" s="75">
+      <c r="M7" s="75" t="e">
         <f>SUM(M4:M6)*O7+N7</f>
-        <v>30</v>
-      </c>
-      <c r="N7" s="77">
-        <v>30</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" s="77"/>
       <c r="O7" s="78">
         <f>100%+P7</f>
-        <v>1.02</v>
-      </c>
-      <c r="P7" s="79">
-        <v>0.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P7" s="79"/>
     </row>
     <row r="8" spans="1:17" ht="33.75" customHeight="1">
       <c r="A8" s="56"/>
@@ -5671,12 +5643,9 @@
       </c>
       <c r="C8" s="56"/>
       <c r="D8" s="59"/>
-      <c r="H8">
-        <v>7.2</v>
-      </c>
       <c r="O8" s="60"/>
     </row>
-    <row r="9" spans="1:17" ht="51">
+    <row r="9" spans="1:17" ht="55.2">
       <c r="A9" s="62" t="s">
         <v>36</v>
       </c>
@@ -5739,27 +5708,23 @@
         <f>D10*E10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H10" s="71"/>
       <c r="I10" s="72">
         <f>F10*D10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="72" t="e">
         <f>H$1*I10/H10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K10" s="72" t="e">
         <f>J10*L10</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M10" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="73"/>
+      <c r="M10" s="72" t="e">
         <f>J10-K10</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N10" s="74"/>
       <c r="O10" s="74"/>
@@ -5778,27 +5743,23 @@
         <f>D11*E11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H11" s="71"/>
       <c r="I11" s="72">
         <f>F11*D11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="72" t="e">
         <f t="shared" ref="J11:J13" si="5">H$1*I11/H11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K11" s="72" t="e">
         <f>J11*L11</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M11" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L11" s="73"/>
+      <c r="M11" s="72" t="e">
         <f>J11-K11</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="41"/>
@@ -5817,27 +5778,23 @@
         <f t="shared" ref="G12:G13" si="6">D12*E12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H12" s="71"/>
       <c r="I12" s="72">
         <f t="shared" ref="I12:I13" si="7">F12*D12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="72" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K12" s="72" t="e">
         <f t="shared" ref="K12:K13" si="8">J12*L12</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M12" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L12" s="73"/>
+      <c r="M12" s="72" t="e">
         <f>J12-K12</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N12" s="41"/>
       <c r="O12" s="41"/>
@@ -5856,27 +5813,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H13" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H13" s="71"/>
       <c r="I13" s="72">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="72" t="e">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="72" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M13" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="73"/>
+      <c r="M13" s="72" t="e">
         <f>J13-K13</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
@@ -5895,29 +5848,25 @@
       </c>
       <c r="H14" s="76"/>
       <c r="I14" s="72"/>
-      <c r="J14" s="76">
+      <c r="J14" s="76" t="e">
         <f>SUM(J11:J13)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K14" s="75" t="e">
         <f t="shared" ref="K14" si="9">SUM(K11:K13)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L14" s="76"/>
-      <c r="M14" s="75">
+      <c r="M14" s="75" t="e">
         <f>SUM(M11:M13)*O14+N14</f>
-        <v>30</v>
-      </c>
-      <c r="N14" s="77">
-        <v>30</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" s="77"/>
       <c r="O14" s="78">
         <f>100%+P14</f>
-        <v>1.02</v>
-      </c>
-      <c r="P14" s="79">
-        <v>0.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P14" s="79"/>
     </row>
     <row r="15" spans="1:17" ht="30.75" customHeight="1">
       <c r="A15" s="56"/>
@@ -5926,12 +5875,9 @@
       </c>
       <c r="C15" s="56"/>
       <c r="D15" s="59"/>
-      <c r="H15">
-        <v>7.2</v>
-      </c>
       <c r="O15" s="60"/>
     </row>
-    <row r="16" spans="1:17" ht="51">
+    <row r="16" spans="1:17" ht="55.2">
       <c r="A16" s="62" t="s">
         <v>36</v>
       </c>
@@ -6009,9 +5955,7 @@
         <f>J17*L17</f>
         <v>0</v>
       </c>
-      <c r="L17" s="73">
-        <v>0.7</v>
-      </c>
+      <c r="L17" s="73"/>
       <c r="M17" s="72">
         <f>J17-K17</f>
         <v>0</v>
@@ -6033,27 +5977,23 @@
         <f>D18*E18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H18" s="71"/>
       <c r="I18" s="72">
         <f>F18*D18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="72" t="e">
         <f t="shared" ref="J18:J20" si="10">H$1*I18/H18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" s="72" t="e">
         <f>J18*L18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M18" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L18" s="73"/>
+      <c r="M18" s="72" t="e">
         <f>J18-K18</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -6072,27 +6012,23 @@
         <f t="shared" ref="G19:G20" si="11">D19*E19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H19" s="71"/>
       <c r="I19" s="72">
         <f t="shared" ref="I19:I20" si="12">F19*D19</f>
         <v>0</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="72" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" s="72" t="e">
         <f t="shared" ref="K19:K20" si="13">J19*L19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M19" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L19" s="73"/>
+      <c r="M19" s="72" t="e">
         <f>J19-K19</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
@@ -6111,27 +6047,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H20" s="71">
-        <v>7.2</v>
-      </c>
+      <c r="H20" s="71"/>
       <c r="I20" s="72">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="72" t="e">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" s="72" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="73">
-        <v>0.7</v>
-      </c>
-      <c r="M20" s="72">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L20" s="73"/>
+      <c r="M20" s="72" t="e">
         <f>J20-K20</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -6150,29 +6082,25 @@
       </c>
       <c r="H21" s="76"/>
       <c r="I21" s="72"/>
-      <c r="J21" s="76">
+      <c r="J21" s="76" t="e">
         <f>SUM(J18:J20)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="75">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="75" t="e">
         <f t="shared" ref="K21" si="14">SUM(K18:K20)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L21" s="76"/>
-      <c r="M21" s="75">
+      <c r="M21" s="75" t="e">
         <f>SUM(M18:M20)*O21+N21</f>
-        <v>30</v>
-      </c>
-      <c r="N21" s="77">
-        <v>30</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="77"/>
       <c r="O21" s="78">
         <f>100%+P21</f>
-        <v>1.02</v>
-      </c>
-      <c r="P21" s="79">
-        <v>0.02</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P21" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
